--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD2A8E2-92EE-4F72-8DB1-F9D2AC690AE4}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DB1C14-A191-4238-BC48-3ED1B8427B83}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1724,6 +1724,10 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2026,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -2065,7 +2069,7 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2076,7 +2080,7 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2186,7 +2190,7 @@
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DB1C14-A191-4238-BC48-3ED1B8427B83}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D26EE45-FB72-417E-BFD4-34BDDB79F5BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1728,6 +1728,10 @@
 </file>
 
 <file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2030,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -3478,7 +3482,7 @@
       <c r="A140" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C140" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D26EE45-FB72-417E-BFD4-34BDDB79F5BF}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340B6696-7EDB-4569-913A-B76E2DDCFAE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,7 +1570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1619,6 +1619,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1633,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1677,6 +1683,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1732,6 +1739,10 @@
 </file>
 
 <file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2034,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -6250,7 +6261,7 @@
       <c r="A402" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B402" s="6" t="s">
+      <c r="B402" s="29" t="s">
         <v>383</v>
       </c>
       <c r="C402" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340B6696-7EDB-4569-913A-B76E2DDCFAE8}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A900784C-0B3E-4447-92AA-D816135DEC64}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,6 +1711,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2045,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="B402" sqref="B402"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -6272,7 +6276,7 @@
       <c r="A403" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B403" s="6" t="s">
+      <c r="B403" s="19" t="s">
         <v>384</v>
       </c>
       <c r="C403" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A900784C-0B3E-4447-92AA-D816135DEC64}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917FDCB6-1156-4C54-9421-B81CA64C2E86}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1715,6 +1715,10 @@
 </file>
 
 <file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2049,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A336" sqref="A336"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="B405" sqref="B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -6298,7 +6302,7 @@
       <c r="A405" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B405" s="6" t="s">
+      <c r="B405" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C405" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917FDCB6-1156-4C54-9421-B81CA64C2E86}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D519250-201D-4DA9-BD0D-ADC1C382C5D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1719,6 +1719,10 @@
 </file>
 
 <file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2053,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+    <sheetView tabSelected="1" topLeftCell="C398" workbookViewId="0">
+      <selection activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -6283,7 +6287,7 @@
       <c r="B403" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="C403" s="4" t="s">
+      <c r="C403" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6324,7 +6328,7 @@
       <c r="A407" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="B407" s="29" t="s">
         <v>387</v>
       </c>
       <c r="C407" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AISHWAR\OneDrive\Desktop\Interview-Preparation-Materials\Java-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{C6494043-9AED-46B9-A64C-EBC1E8A3D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D519250-201D-4DA9-BD0D-ADC1C382C5D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1639,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,6 +1684,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2057,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C398" workbookViewId="0">
-      <selection activeCell="C403" sqref="C403"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -5578,7 +5581,7 @@
       <c r="B336" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C336" s="4" t="s">
+      <c r="C336" s="30" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5589,7 +5592,7 @@
       <c r="B337" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C337" s="30" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5611,7 +5614,7 @@
       <c r="B339" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C339" s="30" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5644,7 +5647,7 @@
       <c r="B342" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C342" s="4" t="s">
+      <c r="C342" s="30" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5743,7 +5746,7 @@
       <c r="B351" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C351" s="4" t="s">
+      <c r="C351" s="30" t="s">
         <v>459</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AISHWAR\OneDrive\Desktop\Interview-Preparation-Materials\Java-DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5B320C-5525-4DFE-8353-849768CC3E13}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>Next Permutation [Will do it later]</t>
+  </si>
+  <si>
+    <t>Same solution as Coin Change 410</t>
+  </si>
+  <si>
+    <t>Revision needed</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,6 +1631,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1639,7 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,6 +1705,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1726,6 +1751,10 @@
 </file>
 
 <file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2060,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -2198,11 +2227,11 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>459</v>
+      <c r="C15" s="32" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -6353,7 +6382,7 @@
       <c r="B410" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C410" s="4" t="s">
+      <c r="C410" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6364,7 +6393,7 @@
       <c r="B411" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C411" s="4" t="s">
+      <c r="C411" s="31" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6419,7 +6448,7 @@
       <c r="B416" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C416" s="4" t="s">
+      <c r="C416" s="31" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6496,7 +6525,7 @@
       <c r="B423" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C423" s="4" t="s">
+      <c r="C423" s="31" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6705,8 +6734,8 @@
       <c r="B442" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="C442" s="4" t="s">
-        <v>4</v>
+      <c r="C442" s="31" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5B320C-5525-4DFE-8353-849768CC3E13}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4616A92-3086-48D0-AD53-B30E0FC26875}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1657,7 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1712,6 +1712,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1755,6 +1756,18 @@
 </file>
 
 <file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person14.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person16.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2089,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -2304,10 +2317,10 @@
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2315,10 +2328,10 @@
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2348,7 +2361,7 @@
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2577,7 +2590,7 @@
       <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2632,10 +2645,10 @@
       <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2688,11 +2701,11 @@
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" spans="1:3" ht="19.5">
       <c r="A60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="27" t="s">
@@ -2750,8 +2763,8 @@
       <c r="B65" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>459</v>
+      <c r="C65" s="27" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
@@ -2956,7 +2969,7 @@
       <c r="A84" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3033,7 +3046,7 @@
       <c r="A91" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3099,7 +3112,7 @@
       <c r="A97" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C97" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4616A92-3086-48D0-AD53-B30E0FC26875}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE8E3EB-807D-4A36-96B5-8D839738C7A9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -2727,7 +2727,7 @@
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2771,10 +2771,10 @@
       <c r="A66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="A67" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -2804,7 +2804,7 @@
       <c r="A69" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -2826,7 +2826,7 @@
       <c r="A71" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2837,7 +2837,7 @@
       <c r="A72" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3123,10 +3123,10 @@
       <c r="A98" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="27" t="s">
         <v>459</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9eed952d0f987d/Desktop/Interview-Preparation-Materials/Java-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE8E3EB-807D-4A36-96B5-8D839738C7A9}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{EB86B0EE-457A-40EE-8588-245D83F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567C885C-CD9F-4D8E-AA17-A0312ABAB622}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -2851,7 +2851,7 @@
       <c r="B73" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       <c r="B74" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       <c r="B78" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       <c r="A86" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3016,7 +3016,7 @@
       <c r="B88" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="27" t="s">
         <v>466</v>
       </c>
     </row>
